--- a/medicine/Psychotrope/Freisa_di_Chieri_amabile/Freisa_di_Chieri_amabile.xlsx
+++ b/medicine/Psychotrope/Freisa_di_Chieri_amabile/Freisa_di_Chieri_amabile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Freisa di Chieri amabile est un vin italien de la région Piémont doté d'une appellation DOC depuis le 20 septembre 1973. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -513,7 +525,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Turin dans les communes de Andezeno, Arignano, Baldissero Torinese, Chieri, Marentino, Mombello di Torino, Montaldo Torinese, Moriondo Torinese, Pecetto Torinese, Pino Torinese, Pavarolo et Riva presso Chieri. Les vignobles se situent à quelques kilomètres au sud-est de Turin.
 </t>
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>couleur : rouge rubis pas trop intense
 odeur : délicat, avec des arômes de framboise et violette
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,6 +621,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -628,7 +648,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponible 
